--- a/Buch/Liste für Buch.xlsx
+++ b/Buch/Liste für Buch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0EE2F-8E3E-47FE-A5E5-0A81EE05666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCE16E-F9D2-46C4-9644-6B1E525D8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499B7AF5-0DB4-4C25-9D21-505C800AEAF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>Kosten</t>
   </si>
@@ -210,13 +210,34 @@
   </si>
   <si>
     <t>Bohrungen unter der Wasserlinie und Leinen Können sich verfangen</t>
+  </si>
+  <si>
+    <t>Konzept 1</t>
+  </si>
+  <si>
+    <t>Konzept 2</t>
+  </si>
+  <si>
+    <t>Konzept 3</t>
+  </si>
+  <si>
+    <t>Konzept 4</t>
+  </si>
+  <si>
+    <t>Konzept 5</t>
+  </si>
+  <si>
+    <t>Konzept 6</t>
+  </si>
+  <si>
+    <t>Konzept 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +245,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -317,27 +350,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,7 +595,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>534299</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>179473</xdr:rowOff>
+      <xdr:rowOff>120858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA67B0F-DEB2-40F0-BD7C-FEABCA647CF3}">
-  <dimension ref="C3:R86"/>
+  <dimension ref="D3:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M75" activeCellId="1" sqref="K59 M75"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y25" activeCellId="1" sqref="T38 Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,33 +1072,38 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -1012,16 +1112,15 @@
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="P7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1">
@@ -1030,14 +1129,14 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -1046,14 +1145,14 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="1">
@@ -1062,14 +1161,14 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1">
@@ -1078,14 +1177,14 @@
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="1">
@@ -1094,51 +1193,44 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f>SUM(E7:E12)</f>
         <v>45</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="1">
@@ -1148,8 +1240,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4" t="s">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1">
@@ -1159,8 +1251,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1">
@@ -1170,8 +1262,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1">
@@ -1181,8 +1273,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1">
@@ -1192,8 +1284,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1">
@@ -1203,34 +1295,153 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <f>SUM(E19:E24)</f>
         <v>43</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
+    <row r="26" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="E30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="T27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>7</v>
+      </c>
+      <c r="U28" s="13">
+        <v>5</v>
+      </c>
+      <c r="V28" s="13">
+        <v>7</v>
+      </c>
+      <c r="W28" s="13">
+        <v>5</v>
+      </c>
+      <c r="X28" s="13">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="16">
+        <v>7</v>
+      </c>
+      <c r="U29" s="1">
+        <v>6</v>
+      </c>
+      <c r="V29" s="1">
+        <v>8</v>
+      </c>
+      <c r="W29" s="1">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="16">
+        <v>9</v>
+      </c>
+      <c r="U30" s="1">
+        <v>7</v>
+      </c>
+      <c r="V30" s="1">
+        <v>9</v>
+      </c>
+      <c r="W30" s="1">
+        <v>4</v>
+      </c>
+      <c r="X30" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="1">
@@ -1239,9 +1450,33 @@
       <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="4" t="s">
+      <c r="S31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="16">
+        <v>8</v>
+      </c>
+      <c r="U31" s="1">
+        <v>8</v>
+      </c>
+      <c r="V31" s="1">
+        <v>8</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X31" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1">
@@ -1250,9 +1485,33 @@
       <c r="F32" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="4" t="s">
+      <c r="S32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="16">
+        <v>7</v>
+      </c>
+      <c r="U32" s="1">
+        <v>9</v>
+      </c>
+      <c r="V32" s="1">
+        <v>7</v>
+      </c>
+      <c r="W32" s="1">
+        <v>9</v>
+      </c>
+      <c r="X32" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="1">
@@ -1261,9 +1520,33 @@
       <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="4" t="s">
+      <c r="S33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="16">
+        <v>7</v>
+      </c>
+      <c r="U33" s="1">
+        <v>8</v>
+      </c>
+      <c r="V33" s="1">
+        <v>8</v>
+      </c>
+      <c r="W33" s="1">
+        <v>9</v>
+      </c>
+      <c r="X33" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="1">
@@ -1272,9 +1555,38 @@
       <c r="F34" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="4" t="s">
+      <c r="S34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" s="17">
+        <f>SUM(T28:T33)</f>
+        <v>45</v>
+      </c>
+      <c r="U34" s="6">
+        <f>SUM(U28:U33)</f>
+        <v>43</v>
+      </c>
+      <c r="V34" s="6">
+        <f>SUM(V28:V33)</f>
+        <v>47</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X34" s="6">
+        <f>SUM(X28:X33)</f>
+        <v>49</v>
+      </c>
+      <c r="Y34" s="6">
+        <f>SUM(Y28:Y33)</f>
+        <v>43</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1">
@@ -1284,8 +1596,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1">
@@ -1295,34 +1607,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="s">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <f>SUM(E31:E36)</f>
         <v>47</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="E42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="1">
@@ -1332,8 +1643,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="4" t="s">
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="1">
@@ -1343,8 +1654,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="4" t="s">
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="1">
@@ -1354,19 +1665,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="4" t="s">
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="4" t="s">
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="1">
@@ -1376,8 +1687,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="5" t="s">
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="1">
@@ -1388,32 +1699,31 @@
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="7"/>
-      <c r="E54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="1">
@@ -1424,7 +1734,7 @@
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="1">
@@ -1435,7 +1745,7 @@
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="1">
@@ -1446,7 +1756,7 @@
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="1">
@@ -1457,7 +1767,7 @@
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="1">
@@ -1468,7 +1778,7 @@
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="1">
@@ -1479,33 +1789,32 @@
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="6">
         <f>SUM(E55:E60)</f>
         <v>49</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="7"/>
-      <c r="E66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="6" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="1">
@@ -1515,8 +1824,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="4" t="s">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E68" s="1">
@@ -1526,8 +1835,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="4" t="s">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="1">
@@ -1537,8 +1846,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="4" t="s">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="1">
@@ -1548,8 +1857,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="4" t="s">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="1">
@@ -1559,8 +1868,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="5" t="s">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="2">
@@ -1570,54 +1879,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="6" t="s">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="6">
         <f>SUM(E67:E72)</f>
         <v>43</v>
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="D75" s="3" t="s">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="7"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-      <c r="D79" s="6" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="1">
@@ -1626,11 +1914,9 @@
       <c r="F79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-      <c r="D80" s="4" t="s">
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="1">
@@ -1639,11 +1925,9 @@
       <c r="F80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="7"/>
-      <c r="D81" s="4" t="s">
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="1">
@@ -1652,11 +1936,9 @@
       <c r="F81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="7"/>
-      <c r="D82" s="4" t="s">
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="1">
@@ -1665,11 +1947,9 @@
       <c r="F82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="7"/>
-      <c r="D83" s="4" t="s">
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="1">
@@ -1678,11 +1958,9 @@
       <c r="F83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="7"/>
-      <c r="D84" s="5" t="s">
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -1691,25 +1969,15 @@
       <c r="F84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="7"/>
-      <c r="D85" s="6" t="s">
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1722,6 +1990,7 @@
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D63:F63"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Buch/Liste für Buch.xlsx
+++ b/Buch/Liste für Buch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCE16E-F9D2-46C4-9644-6B1E525D8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E0CD0-EF1D-41D7-8551-4968341C66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499B7AF5-0DB4-4C25-9D21-505C800AEAF5}"/>
   </bookViews>
@@ -418,9 +418,6 @@
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
@@ -433,6 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA67B0F-DEB2-40F0-BD7C-FEABCA647CF3}">
   <dimension ref="D3:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y25" activeCellId="1" sqref="T38 Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,18 +1081,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="O4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="O4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
@@ -1215,11 +1215,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="E18" s="5" t="s">
@@ -1306,87 +1306,87 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W26" s="12" t="s">
+      <c r="W26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X26" s="12" t="s">
+      <c r="X26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y26" s="12" t="s">
+      <c r="Y26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="Z26" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="T27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="14" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="T27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T28" s="15">
-        <v>7</v>
-      </c>
-      <c r="U28" s="13">
+      <c r="T28" s="14">
+        <v>7</v>
+      </c>
+      <c r="U28" s="12">
         <v>5</v>
       </c>
-      <c r="V28" s="13">
-        <v>7</v>
-      </c>
-      <c r="W28" s="13">
+      <c r="V28" s="12">
+        <v>7</v>
+      </c>
+      <c r="W28" s="12">
         <v>5</v>
       </c>
-      <c r="X28" s="13">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="13">
-        <v>8</v>
+      <c r="X28" s="12">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="15">
         <v>7</v>
       </c>
       <c r="U29" s="1">
@@ -1415,10 +1415,10 @@
       <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="15">
         <v>9</v>
       </c>
       <c r="U30" s="1">
@@ -1450,10 +1450,10 @@
       <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="15">
         <v>8</v>
       </c>
       <c r="U31" s="1">
@@ -1462,7 +1462,7 @@
       <c r="V31" s="1">
         <v>8</v>
       </c>
-      <c r="W31" s="10" t="s">
+      <c r="W31" s="9" t="s">
         <v>15</v>
       </c>
       <c r="X31" s="1">
@@ -1485,10 +1485,10 @@
       <c r="F32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="15">
         <v>7</v>
       </c>
       <c r="U32" s="1">
@@ -1520,10 +1520,10 @@
       <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="15">
         <v>7</v>
       </c>
       <c r="U33" s="1">
@@ -1541,7 +1541,7 @@
       <c r="Y33" s="2">
         <v>6</v>
       </c>
-      <c r="Z33" s="11" t="s">
+      <c r="Z33" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1555,10 +1555,10 @@
       <c r="F34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="16">
         <f>SUM(T28:T33)</f>
         <v>45</v>
       </c>
@@ -1618,11 +1618,11 @@
       <c r="F37" s="1"/>
     </row>
     <row r="39" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="E42" s="5" t="s">
@@ -1708,11 +1708,11 @@
       <c r="F49" s="1"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E54" s="5" t="s">
@@ -1799,11 +1799,11 @@
       <c r="F61" s="1"/>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E66" s="5" t="s">
@@ -1890,11 +1890,11 @@
       <c r="F73" s="1"/>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E78" s="5" t="s">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>52</v>

--- a/Buch/Liste für Buch.xlsx
+++ b/Buch/Liste für Buch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E0CD0-EF1D-41D7-8551-4968341C66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64103483-088F-411E-B5D0-6D934AB32B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499B7AF5-0DB4-4C25-9D21-505C800AEAF5}"/>
   </bookViews>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA67B0F-DEB2-40F0-BD7C-FEABCA647CF3}">
   <dimension ref="D3:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
